--- a/biology/Botanique/Dietes/Dietes.xlsx
+++ b/biology/Botanique/Dietes/Dietes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dietes est un genre de plantes de la famille des Iridaceae.
 Ce sont des plantes herbacées vivaces rhizomateuses qui ont la particularité pour les Iridaceae d'avoir leurs tépales libres. Les fleurs sont blanches, crème ou jaunes.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 janv. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 janv. 2011) :
 Dietes bicolor (Steud.) Sweet ex Klatt (1866) ;
 Dietes butcheriana Gerstner (1943) ;
 Dietes flavida Oberm. (1967) ;
